--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4263925.64</t>
+          <t>4286914.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6656325.71</t>
+          <t>6764472.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>882</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4103040.54</t>
+          <t>4128790.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>873239.26</t>
+          <t>905212.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2657401.28</t>
+          <t>2744003.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>439</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2665680.61</t>
+          <t>2689998.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>438</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1264670.11</t>
+          <t>1290569.11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5287057.92</t>
+          <t>5340051.92</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2876751.12</t>
+          <t>2953342.32</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>585</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1522170.32</t>
+          <t>1536372.32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1251180.04</t>
+          <t>1293780.04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>905879.72</t>
+          <t>924520.72</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1584618.17</t>
+          <t>1758556.94</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1087887.39</t>
+          <t>1158797.39</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1218775.19</t>
+          <t>1328145.19</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>102133.23</t>
+          <t>122181.23</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>762</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2250051.35</t>
+          <t>2278051.35</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>995</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6288549.81</t>
+          <t>6364799.81</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>722</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3911736.37</t>
+          <t>3980122.37</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10111</t>
+          <t>10489</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>29025071.82</t>
+          <t>31159641.50</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>396009.00</t>
+          <t>424009.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6797</t>
+          <t>6948</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>34341948.76</t>
+          <t>35542073.29</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>246500.00</t>
+          <t>253000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6657</t>
+          <t>6810</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>28470862.35</t>
+          <t>29468918.34</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>674657.46</t>
+          <t>686657.46</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1316695.80</t>
+          <t>1322392.80</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7709588.19</t>
+          <t>7720488.19</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3627090.36</t>
+          <t>3637090.36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>178578.00</t>
+          <t>185078.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>931</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2506990.79</t>
+          <t>2554538.79</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7312895.36</t>
+          <t>7953593.54</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>942</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4725275.56</t>
+          <t>5112684.28</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>101206.00</t>
+          <t>111206.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>646350.00</t>
+          <t>648350.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3424754.28</t>
+          <t>3479754.28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7612841.24</t>
+          <t>7643841.24</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>1495</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6632969.63</t>
+          <t>6670911.06</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1290569.11</t>
+          <t>1300749.11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>819</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5340051.92</t>
+          <t>5354648.45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>548</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2953342.32</t>
+          <t>2974242.32</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>591</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1536372.32</t>
+          <t>1547372.32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1293780.04</t>
+          <t>1590068.04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>924520.72</t>
+          <t>928520.72</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>996</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6364799.81</t>
+          <t>6372799.81</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6948</t>
+          <t>6950</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>35542073.29</t>
+          <t>35597073.29</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6810</t>
+          <t>6812</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>29468918.34</t>
+          <t>29488918.34</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>686657.46</t>
+          <t>692707.46</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3479754.28</t>
+          <t>3483754.28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7643841.24</t>
+          <t>7975645.55</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6670911.06</t>
+          <t>7035240.06</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
